--- a/ConsoleSokobanOOP/Data/stages.xlsx
+++ b/ConsoleSokobanOOP/Data/stages.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\KGA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\KGA\KGA_OOPConsoleProject\ConsoleSokobanOOP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB255280-B53B-4788-8F24-58BDC2A4B1AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536A4D86-0A11-47AC-B67E-470D7DD0BB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="765" windowWidth="20490" windowHeight="14835" activeTab="2" xr2:uid="{01181F8C-BAFB-4458-A84B-67239F398865}"/>
+    <workbookView xWindow="3120" yWindow="765" windowWidth="20490" windowHeight="14835" activeTab="3" xr2:uid="{01181F8C-BAFB-4458-A84B-67239F398865}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="1" r:id="rId1"/>
     <sheet name="Stage2" sheetId="3" r:id="rId2"/>
     <sheet name="Stage3" sheetId="4" r:id="rId3"/>
+    <sheet name="Stage4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="9">
   <si>
     <t>W</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -57,6 +58,22 @@
   </si>
   <si>
     <t>GB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +783,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6488432-B598-4489-A431-D34923F66AD4}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
@@ -941,4 +958,191 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB71EF55-99EB-46DD-8CF3-265765FE4CE9}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="G7" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="G8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/ConsoleSokobanOOP/Data/stages.xlsx
+++ b/ConsoleSokobanOOP/Data/stages.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\KGA\KGA_OOPConsoleProject\ConsoleSokobanOOP\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{536A4D86-0A11-47AC-B67E-470D7DD0BB3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17E96F47-35C0-4320-9EA7-BCAFB0294297}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="765" windowWidth="20490" windowHeight="14835" activeTab="3" xr2:uid="{01181F8C-BAFB-4458-A84B-67239F398865}"/>
+    <workbookView xWindow="3120" yWindow="765" windowWidth="20490" windowHeight="14835" activeTab="4" xr2:uid="{01181F8C-BAFB-4458-A84B-67239F398865}"/>
   </bookViews>
   <sheets>
     <sheet name="Stage1" sheetId="1" r:id="rId1"/>
     <sheet name="Stage2" sheetId="3" r:id="rId2"/>
     <sheet name="Stage3" sheetId="4" r:id="rId3"/>
     <sheet name="Stage4" sheetId="5" r:id="rId4"/>
+    <sheet name="Stage5" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="12">
   <si>
     <t>W</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,6 +75,18 @@
   </si>
   <si>
     <t>O2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ia</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Oa</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,8 +977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB71EF55-99EB-46DD-8CF3-265765FE4CE9}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1003,9 +1016,6 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" t="s">
         <v>0</v>
       </c>
@@ -1054,6 +1064,9 @@
       <c r="A5" t="s">
         <v>0</v>
       </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
       <c r="E5" t="s">
         <v>0</v>
       </c>
@@ -1085,7 +1098,7 @@
       <c r="A7" t="s">
         <v>0</v>
       </c>
-      <c r="B7" t="s">
+      <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
@@ -1129,6 +1142,184 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="G9" t="s">
+        <v>0</v>
+      </c>
+      <c r="H9" t="s">
+        <v>0</v>
+      </c>
+      <c r="I9" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F90FF6DE-C7D7-4F69-994A-EFB4DA34B0F1}">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>0</v>
+      </c>
+      <c r="I3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H5" t="s">
+        <v>11</v>
+      </c>
+      <c r="I5" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" t="s">
+        <v>0</v>
+      </c>
+      <c r="I6" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" t="s">
+        <v>0</v>
+      </c>
+      <c r="I7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D9" t="s">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
         <v>0</v>
       </c>
       <c r="G9" t="s">
